--- a/bible_study/bible_study.xlsx
+++ b/bible_study/bible_study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE8026D4-7293-4FFC-8E4E-EF8C8AE24569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40A4E4F-F77A-497A-979F-D73A4EDD14F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{744EB0FF-2C08-4E68-8D6C-DA5D8FE952EB}"/>
+    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{744EB0FF-2C08-4E68-8D6C-DA5D8FE952EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Message</t>
+  </si>
+  <si>
+    <t>Lead</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -76,17 +79,218 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -100,12 +304,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FD5C63-6A9B-41DE-897F-C267E032B5A0}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{89FD5C63-6A9B-41DE-897F-C267E032B5A0}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1BAB7C3F-15D6-4F31-91A9-36CCF2EB5EC0}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{48652CBA-2BD1-4F89-9F3A-56F6C5F698D4}" name="Bible Verse"/>
-    <tableColumn id="3" xr3:uid="{24313384-6889-4417-8489-414AF1CB6858}" name="Message"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89FD5C63-6A9B-41DE-897F-C267E032B5A0}" name="Table1" displayName="Table1" ref="A1:D15" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D15" xr:uid="{89FD5C63-6A9B-41DE-897F-C267E032B5A0}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1BAB7C3F-15D6-4F31-91A9-36CCF2EB5EC0}" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{48652CBA-2BD1-4F89-9F3A-56F6C5F698D4}" name="Bible Verse" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{6A23C47D-F934-4214-9C49-1F6C639CE27F}" name="Lead" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{24313384-6889-4417-8489-414AF1CB6858}" name="Message" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -428,28 +633,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4EF2C4-5C6B-402B-BE60-37E1710F2867}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>45925</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <f>A2+7</f>
+        <v>45932</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f t="shared" ref="A4:A16" si="0">A3+7</f>
+        <v>45939</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <f t="shared" si="0"/>
+        <v>45946</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f t="shared" si="0"/>
+        <v>45953</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f t="shared" si="0"/>
+        <v>45960</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f t="shared" si="0"/>
+        <v>45967</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>45974</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f t="shared" si="0"/>
+        <v>45981</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>45988</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f t="shared" si="0"/>
+        <v>45995</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f t="shared" si="0"/>
+        <v>46002</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f t="shared" si="0"/>
+        <v>46009</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <f t="shared" si="0"/>
+        <v>46016</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
